--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>SALMONES MAULLIN LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>SALMONES MAULLIN LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>SALMONES MAULLIN LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F142" t="n">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>02/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Victor Arnoldo Barria Barria</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Victor Arnoldo Barria Barria</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Pesquera San José S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6101,23 +6101,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F120" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6145,17 +6149,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,15 +6195,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,11 +6483,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6577,23 +6577,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6621,17 +6625,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,7 +6675,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,15 +7199,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,15 +7775,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,43 +8240,91 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>160</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F165" t="n">
+      <c r="F166" t="n">
         <v>10</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/06/2022</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>24/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,11 +1979,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,11 +2795,11 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Victor Arnoldo Barria Barria</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Victor Arnoldo Barria Barria</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Pesquera San José S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6149,23 +6149,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F121" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6193,17 +6197,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,11 +6531,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6625,23 +6625,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F131" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6669,17 +6673,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,15 +7199,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,15 +7775,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,43 +8288,91 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>160</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>10</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/07/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Victor Arnoldo Barria Barria</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>11/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>302</v>
+        <v>1300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6197,23 +6197,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F122" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6241,17 +6245,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,11 +6579,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6673,23 +6673,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6717,17 +6721,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,15 +7199,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,43 +8336,91 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>160</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F167" t="n">
+      <c r="F168" t="n">
         <v>10</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/11/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>28/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,11 +2075,11 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6245,23 +6245,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F123" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6289,17 +6293,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,11 +6627,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6721,23 +6721,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6765,17 +6769,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,15 +7775,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,43 +8384,91 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>160</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F168" t="n">
+      <c r="F169" t="n">
         <v>10</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,11 +443,11 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/11/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>28/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6293,23 +6293,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F124" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6337,17 +6341,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6769,23 +6769,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6813,17 +6817,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,15 +7295,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,7 +7491,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,43 +8432,91 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>160</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F169" t="n">
+      <c r="F170" t="n">
         <v>10</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/11/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,11 +443,11 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>09/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6341,23 +6341,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F125" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6385,17 +6389,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,11 +6723,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6817,23 +6817,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6861,17 +6865,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,43 +8480,91 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>160</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F170" t="n">
+      <c r="F171" t="n">
         <v>10</v>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/01/2023</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS YELQUI LIMITADA</t>
+          <t>Pesquera Trans Antartic Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>19/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pesquera Trans Antartic Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Pesquera Trans Antartic Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6389,23 +6389,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F126" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6433,17 +6437,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,11 +6771,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6865,23 +6865,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6909,17 +6913,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,43 +8528,91 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>160</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F171" t="n">
+      <c r="F172" t="n">
         <v>10</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,20 +434,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>19/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pesquera Trans Antartic Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Pesquera Trans Antartic Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,7 +5915,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6437,23 +6437,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F127" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6481,17 +6485,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,11 +6819,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6913,23 +6913,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6957,17 +6961,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,15 +7775,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,43 +8576,91 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>160</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F172" t="n">
+      <c r="F173" t="n">
         <v>10</v>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>28/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/03/2023</t>
+          <t>30/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>28/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pesquera Trans Antartic Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Pesquera Trans Antartic Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6485,23 +6485,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F128" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6529,17 +6533,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6961,23 +6961,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7005,17 +7009,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,25 +8399,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,15 +8591,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,43 +8624,91 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>160</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F173" t="n">
+      <c r="F174" t="n">
         <v>10</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/03/2023</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico para Ampliación de Especies a Mitílidos y Ostreidos del Centro 103743, Canal Yal, al norte de Punta Detif, Isla Lemuy, Comuna de Puqueldón, Provincia de Chiloé, Región de Los Lagos- PERT N° 219103061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/04/2023</t>
+          <t>13/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159437950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/03/2023</t>
+          <t>03/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158958603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>28/03/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158885951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158876125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158393066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102585, Liucura, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/12/2022</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157794556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
+          <t>Modificación de Proyecto Técnico Centro 102134, Lincay, Canal Yal, Isla Lemuy - Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157756057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>17/11/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157636755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
+          <t>Modificación de Proyecto Técnico, Centro 101415, Canal Yal, Sector Sur Punta Lucu, Isla Lemuy- Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Sociedad Comercial Cárdenas Soto Lemuy Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/06/2022</t>
+          <t>29/07/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156525316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
+          <t>Modificación proyecto técnico, cultivo de mitílidos, en sector Punta Quechomó, isla Lemuy, Canal Yal, Comuna de Puqueldón, Décima Región Pert N° 21910304</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2500</v>
+        <v>329</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>08/06/2022</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156195519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 102042, Yelqui</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147616897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 100988, Puqueldón</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147611708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
+          <t>Modificación de Proyecto Técnico: Ampliación de Biomasa CES 101991, Chalihué</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>329</v>
+        <v>2500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147483996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
+          <t>?MODIFICACION PROYECTO TECNICO \"CULTIVO DE MITILIDOS, EN SECTOR PUNTA QUECHOMO, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 219103044)\"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Toralla S.A.</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/04/2019</t>
+          <t>29/07/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143827360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
+          <t>Modificación del Proyecto ?Engorda de Mitílidos, Ostreidos y Pectínidos a partir del Estado de Semilla ? Canal Yal, Sector Detif?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PESQUERA TRANS ANTARTIC LTDA</t>
+          <t>Toralla S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/02/2019</t>
+          <t>15/04/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142949300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/03/2017</t>
+          <t>08/02/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142455954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR LIUCURA, ISLA LEMUY, CANAL YAL, COMUNA DE PUQUELDON, DECIMA REGION (N° 216103051)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>PESQUERA TRANS ANTARTIC LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/10/2016</t>
+          <t>22/03/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132261452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
+          <t>MODIFICACIÓN PROYECTO TÉCNICO "CULTIVO DE MITÍLIDOS, EN SECTOR CANAL LEMUY, AL NORTE DE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDÓN, X REGIÓN DE LOS LAGOS. PERT N° 215103019"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25/03/2015</t>
+          <t>24/10/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131888767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN CANAL LEMUY, AL ESTE DE PUNTA GUACHIYAPE. ISLA LEMUY, COMUNA DE PUQUELDON (N° 208103134)"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/01/2015</t>
+          <t>25/03/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N° 201103088)"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130106984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
+          <t>Modificación Proyecto Técnico "Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N° 201103096)"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>06/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130107011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
+          <t>PROYECTO TECNICO "CULTIVO DE MACROALGAS HUIRO (Macrocystis pyrifera), CANAL LEMUY, AL NORTE DE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (N° 210103197)"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Alcides Alejandro Gomez Haro</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129945189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103063.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129828188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
+          <t>Declaración de Impacto Ambiental Centro de Cultivo de macroalgas, Ensenada Detif, Isla Lemuy, Comuna de Puqueldón, X Región, Nº de solicitud 211103064.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alcides Alejandro Gomez Haro</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>140</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
+          <t>Centro de cultivo de Salmónidos al norte de Punta Detif, Isla Lemuy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128929252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Centro de cultivo de Salmónidos Liucura (Cahueldao), Isla Lemuy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128935245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste Punta Pureo, Isla Lemuy Pert N° 207103190</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
+          <t>Centro de Cultivo de Macroalgas, Canal Lemuy al Noroeste de Punta Pureo, Isla Lemuy Pert N° 207103131</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8143928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
+          <t>Centro de Cultivo Macroalgas, Canal Lemuy al Norte de Punta Pureo, Isla Lemuy Pert N° 207103132 Cultivo Macroalgas, Pert N° 207103132</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Comercial Industrial y Servicios Cultimar Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>25/03/2013</t>
+          <t>08/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8145772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
+          <t>"Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Ichuac"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/03/2013</t>
+          <t>25/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8000678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
+          <t>Modificación del Manejo de Mortalidad mediante un Sistema de Ensilaje - Centro Liucura (Cahueldao) Ensilaje Centro Liucura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>34</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/02/2013</t>
+          <t>07/03/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7951545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
+          <t>"Ampliación de Biomasa Centro de Cultivo de Salmónidos Canal Quehui, Sur de Punta Yaotal, Isla Lemuy, comuna Puqueldón, Xa. Región de Los Lagos, N° Solicitud 212103148"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>224</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>07/02/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7852294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
+          <t>CENTRO DE CULTIVO DE MACROALGAS Nº SOLICITUD 204103007, CANAL LEMUY, AL NORTE DE PTA. YELQUI, ISLA LEMUY, COMUNA DE PUQUELDÓN.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7647031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 204103025, SECTOR PTA. CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN C.CULT. Nº SOL. 204103025, CHALIHUE, COM.PUQUELDÓN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7321997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Quehui, Al sur de Punta Yoatal, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103077</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6631068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación de Biomasa de Salmónidos, Concesión Canal Yal, Sector Lincai, Isla Lemuy, Comuna de Puqueldón, Nº Solicitud: 211103078.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
+          <t>"CULTIVO DE MITILIDOS Y OSTREIDOS EN SECTOR CALETA PUQUELDON, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 211103004)"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/09/2011</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6314099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
+          <t>"CULTIVO DE MACROALGAS, EN SECTOR PUNTA GUAGHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON (SOL Nº 206103343)"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/09/2011</t>
+          <t>29/09/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
+          <t>CENTRO DE CULTIVO Nº SOLICITUD 207103180, SECTOR PUNTA CHALIHUE, CANAL LEMUY, COMUNA DE PUQUELDÓN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/08/2011</t>
+          <t>23/09/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6069835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
+          <t>Ampliación CES, Canal Lemuy, Sector Punta Chalihue, Isla Lemuy,Solicitud N° 210103202</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/07/2011</t>
+          <t>19/08/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5936894&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
+          <t>Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Detif</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>05/07/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5785225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Reproductores de Salmones Puerto Haro, Código 100.619"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Punta Lucu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5157925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
+          <t>Centro Puqueldón; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje Centro Puqueldón, Ensilaje</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rodrigo Paya González</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>650</v>
+        <v>80</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/11/2010</t>
+          <t>29/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5100037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
+          <t>CULTIVO DE MITILIDOS EN LIUCURA 1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>17/11/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5082702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
+          <t>CULTIVO DE MITILIDOS LIUCURA 1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Rodrigo Paya González</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>650</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5027247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MITILIDOS Nª 206103342, SECTOR LIUCURA, ISLA LEMUY, COMUNA DE PUQUELDON</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4995596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
+          <t>Centro Chalihué; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/06/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4879377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
+          <t>Modificación de Proyecto Técnico, Cultivo de Mitílidos y Abalón Rojo, Norte Punta Pureo, Pert N° 208103159</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pesquera Trans Antartic Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>15/06/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4655272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS Y ABALON ROJO EN SECTOR NORTE PUNTA YELQUI, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 208103067)"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Pesquera Trans Antartic Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS DETIF, Nº PERT 207103099, ISLA LEMUY, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4205424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA YELQUI, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4199632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA DETIF, Nº PERT 207103098, ISLA LEMUY, DECIMA REGIÓN. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Galaico Chilena de Pescados y Mariscos S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/08/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4165943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
+          <t>AMPLIACION CES CONCESIÓN PUQUELDÓN, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/07/2009</t>
+          <t>12/08/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3964258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>AMPLIACIÓN CES CONCESIÓN PUNTA CHALIHUÉ, INVERTEC PESQUERA MAR DE CHILOÉ S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/07/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3935601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MARINE SHELLS LTDA.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Isla Lemuy, Sector Ensenada Detif Pert Nº 206103319 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rodrigo Andrés Rivera Barrientos</t>
+          <t>MARINE SHELLS LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>16/12/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3432689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
+          <t>SOLICITUD DE CONCESIÓN DE ACUICULTURA Nº 206103325, SECTOR CANAL YAL SUROESTE DE PUNTA LUCU, COMUNA DE PUQUELDÓN, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>Rodrigo Andrés Rivera Barrientos</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>511</v>
+        <v>242</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3369692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº 206103249 Entre Punta Chalihué y Punta Yaotal, Comuna de Puqueldón, Provincia de Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>511</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>06/10/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3224228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Sur Isla Taucolón 204103057 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LESLIE EDITH STEVENSON CASTRO</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS ISLA LEMUY, SECTOR PUNTA PUREO, COMUNA DE PUQUELDON. PERT. Nº 203103107 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>LESLIE EDITH STEVENSON CASTRO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
+          <t>Ampliación Producción Sur Punta Lucu, Oeste Isla Lemuy (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/05/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103047)" SOL Nº 205103047 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORESTE PUNTA GUACHIYAPE, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 205103072)" SOL Nº205103072 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SOCIEDAD COMERCIAL BARRIA GOMEZ Y COMPAÑÍA LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>291</v>
+        <v>811</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/01/2008</t>
+          <t>12/05/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos y Abalones Puerto Haro Nº PERT 207103243 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>24/01/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2660189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ENSENADA DETIF, ISLA LEMUY, COMUNA DE PUQUELDON, X REGIÓN (SOL Nº 203103092)" (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2520721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>636</v>
+        <v>234</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL CENTRO DE CULTIVO DE MITILIDOS, OSTREIDOS Y PECTINIDOS CÓDIGO 102983, EN SECTOR DETIF COMUNA DE PUQUELDÓN Y HABILITACIÓN DE UNA BASE EN TIERRA PARA OPERACIONES DE APOYO (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2360435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN CENTRO DE CULTIVO DE MITÍLIDOS, OSTREIDOS Y PECTÍNIDOS CÓDIGO 103350, EN SECTOR DETIF COMUNA DE PUQUELDÓN CENTRO CULT DE MITÍLIDOS, OSTREIDOS Y PECTINIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apio S.A.</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Pesquera Apio S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2205462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACION CENTRO DE CULTIVO DE MYTILUS CHILENSIS CODIGO 103584, EN SECTOR DETIF COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2072910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTACHALIHUE Nº SOLICITUD 203103228 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>FRANCISCO ALBERTO CHÁVEZ CATEPILLÁN</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1700</v>
+        <v>66</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1679154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Llucura (Cahueldao) (Pert. N° 206103124) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/07/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1571026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>302</v>
+        <v>1700</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>05/07/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CULTIVOS MARINOS ALDACHILDO Nº PERT. 203103103 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>302</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1400304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>28/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones Caleta Chulchuy, Canal Yal Isla Lemuy Comuna de Puqueldón, X Región, Pert N°203103147 203103147 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/02/2006</t>
+          <t>28/02/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1317702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
+          <t>Cultivo de Chorito en Punta Chalihue, Isla Lemuy, comuna de Puqueldón 203103141 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>RAUL HERNAN VELIZAR SOTO</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/02/2006</t>
+          <t>23/02/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1258222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
+          <t>CHALIHUÉ 1 203103111 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
+          <t>CHALIHUÉ 3 203103115 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CESAR FERNANDO VERA HERNANDEZ</t>
+          <t>RAUL HERNAN VELIZAR SOTO</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1283676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
+          <t>CHALIHUÉ 2 203103112 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CESAR FERNANDO VERA HERNANDEZ</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>800</v>
+        <v>66</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>14/02/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1284199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmonídeos Punta Apabón, (Código Centro 102714) (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1278285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao Nº Pert 200103117 (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Detif Pert Nº 200103118 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quetalco, Aguas Claras Nº 200103144 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chidguapi Nº 200104023 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CCB, Punta Quechomo Sector 1 Isla Lemuy, Pert Nº 201103273 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>777</v>
+        <v>50</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
+          <t>CULTIVO DE ABALON ROJO EN SECTOR NORTE PUNTA PUREO, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>36</v>
+        <v>777</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>21/12/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1176361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
+          <t>CULTIVOS MARINOS CHALIHUE Nº PERT. 203103227 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>vicent paul arbucci AA</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1165351&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
+          <t>CULTIVO DE CHORITO Y ABALON ROJO EN PUNTA YELQUI, ISLA LEMUY, COMUNA DE PUQUELDON (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>vicent paul arbucci AA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1154517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
+          <t>CULTIVOS MARINOS DETIF - Nº SOLICITUD 203103167 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Latitud Sur Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/05/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1134140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
+          <t>CCM, Punta Quechomo Isla Lemuy Sec. 2, Pert Nº 201103274 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
+          <t>Latitud Sur Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/05/2005</t>
+          <t>13/05/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=848658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA DETIF, ISLA LEMUY, Nº PERT 201103200 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
+          <t>MAURICIO GUILLERMO CABRERA SILVA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/04/2005</t>
+          <t>09/05/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=677075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
+          <t>CEM, Punta Quechomo Isla Lemuy Sector 3, Pert Nº 201103275 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Sociedad Comercial Inversiones Latitud Sur Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>11/04/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
+          <t>Cultivo de Mitilidos en Isla Lemuy, Sector Detif (Nº Sol. 203103059) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Cultivo de Mitílidos Liucura (Sol. Nº 200103158) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>23</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=400430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
+          <t>CULTIVOS MARINOS DIEMAR (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Comercial e Inversiones Barsom Esso Limitada</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=315572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
+          <t>CULTIVOS MARINOS LIUCURA Nº PERT. 201103300 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>Comercial e Inversiones Barsom Esso Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21/08/2003</t>
+          <t>08/03/2004</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=287904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
+          <t>Reacondicionamiento Planta de Proceso e Instalación de Sistema de Tratamiento y Emisario Submarino para la disposición de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1350</v>
+        <v>256</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/04/2003</t>
+          <t>21/08/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
+          <t>Centro de engorda de salmones Sur Punta Lucu, Isla Lemuy, Chiloé. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/03/2003</t>
+          <t>15/04/2003</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=69043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
+          <t>Ampliación de Especie de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1 (N°Solicitud 201103179) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 (N°Solicitud 99103043) (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 (N°Solicitud 99103042) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6.1 (N°Solicitud 99103051) (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10/02/2003</t>
+          <t>11/03/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=57059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
+          <t>Ampliación de Especies de Centro de Cultivo de Moluscos, Isla Lemuy, Canal de Yal, Sector Lincay 1, Nº Sol. 201103179 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>10/02/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=50914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
+          <t>Cultivos Marinos Detif 1 NºSol. 99103043 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
+          <t>Cultivos Marinos Detif 2 NºSol. 99103046 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
+          <t>Cultivos Marinos Detif 3 NºSol. 99103042 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
+          <t>Cultivos Marinos Detif 4 NºSol. 99103045 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
+          <t>Cultivos Marinos Detif 5 NºSol. 99103052 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
+          <t>Cultivos Marinos Detif 6 NºSol. 99103044 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
+          <t>Cutivos Marinos Detif 6.1 NºSol. 99103051 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
+          <t>Cultivos de Choritos Estero Puqueldón Isla Lemuy ( Solicitud Nº99103020)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6533,23 +6533,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+        </is>
+      </c>
       <c r="F129" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/09/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
+          <t>Chalihué Cultivo de Moluscos en Isla Lemuy Chiloé ( Solicitud Nº201103015)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6577,17 +6581,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
-        </is>
-      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>04/09/2002</t>
+          <t>23/09/2002</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
+          <t>Centro de Cultivo de Salmonídeos Cahueldao ( Solicitud N°200103117)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gonzalo Camacho Santibañez</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>04/09/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
+          <t>Moluscos Puerto Haro 1 ( Solicitud N°201103178)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jaime Rene Villalobos Hurtado</t>
+          <t>Gonzalo Camacho Santibañez</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
+          <t>Cultivo de Moluscos Liucura ( Solicitud N°200103293)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Jaime Rene Villalobos Hurtado</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/01/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura V y VI (Solicitudes N°200103157; 200103159)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>15/01/2002</t>
+          <t>22/01/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
+          <t>Centros de Cultivo de Mitílidos Liucura I II III IV y Detif I (Solicitudes N°200103160; 200103171; 200103145; 200103147; 200103172)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>15/01/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
+          <t>Doña Ana II Cultivo de Moluscos en Isla Lemuy Chiloe (Solicitud N°99103059)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
+          <t>Doña Ana I Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°98103077)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,11 +6915,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
+          <t>Puerto Haro Cultivo de Moluscos en Isla Lemuy Chiloé (Solicitud N°99103117)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rebeca Mariana Pavez Poseck</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
+          <t>Cultivo de Mitílidos en Isla Lemuy (Sol. N°99103047)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7009,23 +7009,27 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Rebeca Mariana Pavez Poseck</t>
+        </is>
+      </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>08/10/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
+          <t>Engorda de Moluscos Bivalvos en Puqueldón Isla Lemuy (Solicitud N° 99103006)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7053,17 +7057,13 @@
           <t>Décima</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Pedro Jaime Barría Pérez</t>
-        </is>
-      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
+          <t>Cultivos Marinos Detif 6 (Sol. N°99103044)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
+          <t>Cultivos Marinos Detif 5 (Sol. N°99103052)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
+          <t>Cultivos Marinos Detif 2 (Sol. N°99103046)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
+          <t>Cultivos Marinos Detif 4 N° Pert 99103045</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
+          <t>Cultivos Marinos Detif 1 N° PERT 99103043</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,7 +7299,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
+          <t>Cultivos Marinos Detif 3 N° Pert 99103042</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
+          <t>Cultivos Marinos Detif 6.1 N°99103051</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Sahr Díaz</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 1 (Sol. N°99103027)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif CESD 2 (Sol. N°99103049)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sonja Krista Roth Georgi</t>
+          <t>Carlos Eduardo Sahr Díaz</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Detif SKRG 1 (Sol. N°99103067)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
+          <t>Sonja Krista Roth Georgi</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
+          <t>Cultivo de Choritos y Ostra Japonesa en Estero Puqueldon Isla Lemuy (Sol. N°97103125)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>PANTALEON ELIAZAR CARDENAS ELGUETA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
+          <t>Centro de Cultivo de Salmones Detif ( Sol. N°200103118)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Pedro Arcadio Perez Cardenas</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>23/08/2001</t>
+          <t>29/08/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Yelqui</t>
+          <t>Cultivo de Mitílidos Ostreídos y Pectínidos en el Sector de Punta Quechomo Canal Yal Isla Lemuy Comuna de Puqueldón Provincia de Chiloé Décima Región de Los Lagos ( Sol. N°97103155)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>23/08/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Cuchao</t>
+          <t>Cultivo de Moluscos en Yelqui</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Quechomo</t>
+          <t>Cultivo de Moluscos en Cuchao</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Karen Andrea Sánchez Rodríguez</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos en Bahía Lincay</t>
+          <t>Cultivo de Moluscos en Punta Quechomo</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
+          <t>Karen Andrea Sánchez Rodríguez</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
+          <t>Cultivos de Moluscos en Bahía Lincay</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>Cultivos Marinos Vilupulli y Cía Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
+          <t>Cultivos Marinos Diemar (Sol N°200103099)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pedro Nicolas Montecinos Montiel</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
+          <t>Cultivos Marinos Ichuac (Sol. N°98103119)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lemuy</t>
+          <t>Cultivos Marinos Chalihue (Sol. N°98103118)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Pedro Nicolas Montecinos Montiel</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
+          <t>Cultivos Marinos Lemuy</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>04/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 3 (Sol. N°201103096)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesión Liucura 2 (Sol. N°201103088)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>04/06/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cultivos Marinos CaiCai - Vilu</t>
+          <t>Construcción Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Felipe Rafael Chavez Catepillan</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sofiamar</t>
+          <t>Cultivos Marinos CaiCai - Vilu</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
+          <t>Felipe Rafael Chavez Catepillan</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Restaurante El Hórreo</t>
+          <t>Cultivos Marinos Sofiamar</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sergio Otilano Tejón Menéndez</t>
+          <t>HUGO CARLOS CHAVEZ CATEPILLAN</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>15/02/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
+          <t>Restaurante El Hórreo</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Carlos Galecio Araya</t>
+          <t>Sergio Otilano Tejón Menéndez</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>15/02/2001</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
+          <t>Centro de Cultivo de Salmonídeos Punta Apabón Isla Lemuy Chiloé X Región (Solicitud N° 200103040)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,25 +8399,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puqueldón</t>
+          <t>Carlos Galecio Araya</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
+          <t>Instalación de Servicio de Alcantarillado y Construcción de Planta de Tratamiento de Aguas Servidas de la Localidad de Puqueldón Comuna de Puqueldón Xa Región de Los Lagos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,25 +8447,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>I. Municipalidad de Puqueldón</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/05/2000</t>
+          <t>27/10/2000</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif MDEB1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Gastón Patricio Guarda Andrade</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores sector Detif GPGA1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Gastón Patricio Guarda Andrade</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07/02/2000</t>
+          <t>02/05/2000</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
+          <t>Concesión de Acuicultura para Cultivo de Mitilidos Ostreidos y Pectínidos en el Sector de Liucura Canal Yal Isla Lemuy Comuna de Puqueldón</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,15 +8591,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Julio Antonio Delgado Echeverría</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>07/02/2000</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Liucura</t>
+          <t>Engorda de Mitílidos Ostreidos y Pectínidos a Partir del Estado de Semilla - Canal de Yal Sector Detif</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,15 +8639,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Felipe Chavez Altamirano</t>
+          <t>Julio Antonio Delgado Echeverría</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,43 +8672,91 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>Cultivos Marinos Liucura</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Felipe Chavez Altamirano</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>160</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>12/11/1999</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2423&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>Concesión de Acuicultura para Cultivos de Mitilidos Ostreidos y Pectinidos en el sector de Puerto Aro Punta de Quechomo Canal Yal Isla Lemuy Comuna de Puqueldon Provincia de Chiloé Décima Región de Los Lagos</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>Pedro Arcadio Perez Cardenas</t>
         </is>
       </c>
-      <c r="F174" t="n">
+      <c r="F175" t="n">
         <v>10</v>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>18/08/1999</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2195&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>Puqueldón</t>
         </is>

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">

--- a/data/Puqueldón.xlsx
+++ b/data/Puqueldón.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Russie Luengo Durán</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Faro Yal, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos y Abalones Puerto Haro, Isla Lemuy, Comuna de Puqueldón (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Russie Luengo Durán</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
+          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1555033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Estero Ichuac (Pert. N° 206103022) (e-seia)</t>
+          <t>Centro de cultivo de salmones Detif (Pert. N° 206103125) (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="